--- a/NT_point.xlsx
+++ b/NT_point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\upload data\processed data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NPV-cover-main\NPV-cover-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25871A-0D48-4C84-A234-21253A6061E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8A6E2-9B27-4F8D-A856-A370BCA10261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPVCover" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E9033-88F3-4D51-A713-C22F73A46CA1}">
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9965,7 +9965,7 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20786,7 +20786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E46AB4-11F0-411E-A28B-1989FBC94ED6}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -31131,10 +31131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31142,7 +31142,7 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -31173,14 +31173,8 @@
       <c r="J1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>43719</v>
       </c>
@@ -31211,14 +31205,8 @@
       <c r="J2">
         <v>0.42</v>
       </c>
-      <c r="K2">
-        <v>9.4176851544411857</v>
-      </c>
-      <c r="L2">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>43691</v>
       </c>
@@ -31249,14 +31237,8 @@
       <c r="J3">
         <v>0.42599999999999993</v>
       </c>
-      <c r="K3">
-        <v>8.2804977662111217</v>
-      </c>
-      <c r="L3">
-        <v>0.42599999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>43691</v>
       </c>
@@ -31287,14 +31269,8 @@
       <c r="J4">
         <v>0.37</v>
       </c>
-      <c r="K4">
-        <v>8.0039261545490721</v>
-      </c>
-      <c r="L4">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>43691</v>
       </c>
@@ -31325,14 +31301,8 @@
       <c r="J5">
         <v>0.36700000000000005</v>
       </c>
-      <c r="K5">
-        <v>9.5433978494770724</v>
-      </c>
-      <c r="L5">
-        <v>0.36700000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>43691</v>
       </c>
@@ -31363,14 +31333,8 @@
       <c r="J6">
         <v>0.623</v>
       </c>
-      <c r="K6">
-        <v>7.7651116376263047</v>
-      </c>
-      <c r="L6">
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>43691</v>
       </c>
@@ -31401,14 +31365,8 @@
       <c r="J7">
         <v>0.69700000000000006</v>
       </c>
-      <c r="K7">
-        <v>9.5459148383845989</v>
-      </c>
-      <c r="L7">
-        <v>0.69700000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>43690</v>
       </c>
@@ -31439,14 +31397,8 @@
       <c r="J8">
         <v>0.28699999999999998</v>
       </c>
-      <c r="K8">
-        <v>7.7553027939384771</v>
-      </c>
-      <c r="L8">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>43689</v>
       </c>
@@ -31477,14 +31429,8 @@
       <c r="J9">
         <v>0.44299999999999995</v>
       </c>
-      <c r="K9">
-        <v>9.1723212913288936</v>
-      </c>
-      <c r="L9">
-        <v>0.44299999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>43689</v>
       </c>
@@ -31515,14 +31461,8 @@
       <c r="J10">
         <v>0.38299999999999995</v>
       </c>
-      <c r="K10">
-        <v>10.675034117019409</v>
-      </c>
-      <c r="L10">
-        <v>0.38299999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>43689</v>
       </c>
@@ -31553,14 +31493,8 @@
       <c r="J11">
         <v>0.51</v>
       </c>
-      <c r="K11">
-        <v>6.9428362852395873</v>
-      </c>
-      <c r="L11">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>43671</v>
       </c>
@@ -31591,14 +31525,8 @@
       <c r="J12">
         <v>0.34299999999999997</v>
       </c>
-      <c r="K12">
-        <v>7.3906158655976837</v>
-      </c>
-      <c r="L12">
-        <v>0.34299999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>43670</v>
       </c>
@@ -31629,14 +31557,8 @@
       <c r="J13">
         <v>0.433</v>
       </c>
-      <c r="K13">
-        <v>8.6620049271779873</v>
-      </c>
-      <c r="L13">
-        <v>0.433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>43670</v>
       </c>
@@ -31667,14 +31589,8 @@
       <c r="J14">
         <v>0.47</v>
       </c>
-      <c r="K14">
-        <v>9.9574644590576451</v>
-      </c>
-      <c r="L14">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>43669</v>
       </c>
@@ -31705,14 +31621,8 @@
       <c r="J15">
         <v>0.42599999999999999</v>
       </c>
-      <c r="K15">
-        <v>7.9066946360073525</v>
-      </c>
-      <c r="L15">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>43669</v>
       </c>
@@ -31743,14 +31653,8 @@
       <c r="J16">
         <v>0.61399999999999999</v>
       </c>
-      <c r="K16">
-        <v>8.0540657082105334</v>
-      </c>
-      <c r="L16">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>43669</v>
       </c>
@@ -31781,14 +31685,8 @@
       <c r="J17">
         <v>0.20300000000000001</v>
       </c>
-      <c r="K17">
-        <v>7.5232672091747101</v>
-      </c>
-      <c r="L17">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>43668</v>
       </c>
@@ -31819,14 +31717,8 @@
       <c r="J18">
         <v>0.53</v>
       </c>
-      <c r="K18">
-        <v>7.6867121504686686</v>
-      </c>
-      <c r="L18">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>43665</v>
       </c>
@@ -31857,14 +31749,8 @@
       <c r="J19">
         <v>0.26600000000000001</v>
       </c>
-      <c r="K19">
-        <v>10.191737038337303</v>
-      </c>
-      <c r="L19">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>43664</v>
       </c>
@@ -31895,14 +31781,8 @@
       <c r="J20">
         <v>0.41</v>
       </c>
-      <c r="K20">
-        <v>11.728143416548539</v>
-      </c>
-      <c r="L20">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>43664</v>
       </c>
@@ -31933,14 +31813,8 @@
       <c r="J21">
         <v>0.53</v>
       </c>
-      <c r="K21">
-        <v>13.615438358366923</v>
-      </c>
-      <c r="L21">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>43664</v>
       </c>
@@ -31971,14 +31845,8 @@
       <c r="J22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K22">
-        <v>11.26923412859729</v>
-      </c>
-      <c r="L22">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>43663</v>
       </c>
@@ -32009,14 +31877,8 @@
       <c r="J23">
         <v>0.377</v>
       </c>
-      <c r="K23">
-        <v>12.308128207682254</v>
-      </c>
-      <c r="L23">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>43662</v>
       </c>
@@ -32047,14 +31909,8 @@
       <c r="J24">
         <v>0.9</v>
       </c>
-      <c r="K24">
-        <v>20.685826108981953</v>
-      </c>
-      <c r="L24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>43662</v>
       </c>
@@ -32085,14 +31941,8 @@
       <c r="J25">
         <v>0.75</v>
       </c>
-      <c r="K25">
-        <v>11.035165319564561</v>
-      </c>
-      <c r="L25">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>43662</v>
       </c>
@@ -32123,14 +31973,8 @@
       <c r="J26">
         <v>0.41399999999999998</v>
       </c>
-      <c r="K26">
-        <v>10.632262804728025</v>
-      </c>
-      <c r="L26">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>43662</v>
       </c>
@@ -32161,14 +32005,8 @@
       <c r="J27">
         <v>0.60699999999999998</v>
       </c>
-      <c r="K27">
-        <v>9.6261156254873583</v>
-      </c>
-      <c r="L27">
-        <v>0.60699999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>43661</v>
       </c>
@@ -32199,14 +32037,8 @@
       <c r="J28">
         <v>0.63700000000000001</v>
       </c>
-      <c r="K28">
-        <v>15.631400034020633</v>
-      </c>
-      <c r="L28">
-        <v>0.63700000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>43661</v>
       </c>
@@ -32237,14 +32069,8 @@
       <c r="J29">
         <v>0.88</v>
       </c>
-      <c r="K29">
-        <v>20.685826108981953</v>
-      </c>
-      <c r="L29">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>43660</v>
       </c>
@@ -32275,14 +32101,8 @@
       <c r="J30">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K30">
-        <v>19.320022209146188</v>
-      </c>
-      <c r="L30">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>43659</v>
       </c>
@@ -32313,14 +32133,8 @@
       <c r="J31">
         <v>0.64</v>
       </c>
-      <c r="K31">
-        <v>14.946464149252284</v>
-      </c>
-      <c r="L31">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>43659</v>
       </c>
@@ -32351,14 +32165,8 @@
       <c r="J32">
         <v>0.90300000000000002</v>
       </c>
-      <c r="K32">
-        <v>18.951517532515862</v>
-      </c>
-      <c r="L32">
-        <v>0.90300000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>43658</v>
       </c>
@@ -32389,14 +32197,8 @@
       <c r="J33">
         <v>0.95299999999999996</v>
       </c>
-      <c r="K33">
-        <v>20.975257814250501</v>
-      </c>
-      <c r="L33">
-        <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>43658</v>
       </c>
@@ -32427,14 +32229,8 @@
       <c r="J34">
         <v>0.77</v>
       </c>
-      <c r="K34">
-        <v>17.782113391227696</v>
-      </c>
-      <c r="L34">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>43657</v>
       </c>
@@ -32465,14 +32261,8 @@
       <c r="J35">
         <v>0.87400000000000011</v>
       </c>
-      <c r="K35">
-        <v>15.704711575815761</v>
-      </c>
-      <c r="L35">
-        <v>0.87400000000000011</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>43657</v>
       </c>
@@ -32503,14 +32293,8 @@
       <c r="J36">
         <v>0.91</v>
       </c>
-      <c r="K36">
-        <v>18.606784192396809</v>
-      </c>
-      <c r="L36">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>43657</v>
       </c>
@@ -32541,14 +32325,8 @@
       <c r="J37">
         <v>0.84</v>
       </c>
-      <c r="K37">
-        <v>17.39482849434248</v>
-      </c>
-      <c r="L37">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>43657</v>
       </c>
@@ -32579,14 +32357,8 @@
       <c r="J38">
         <v>0.32299999999999995</v>
       </c>
-      <c r="K38">
-        <v>11.768922692146262</v>
-      </c>
-      <c r="L38">
-        <v>0.32299999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>43657</v>
       </c>
@@ -32617,14 +32389,8 @@
       <c r="J39">
         <v>0.79700000000000004</v>
       </c>
-      <c r="K39">
-        <v>14.843760025198577</v>
-      </c>
-      <c r="L39">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>43657</v>
       </c>
@@ -32655,14 +32421,8 @@
       <c r="J40">
         <v>0.36399999999999999</v>
       </c>
-      <c r="K40">
-        <v>10.472697364284898</v>
-      </c>
-      <c r="L40">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>43656</v>
       </c>
@@ -32693,14 +32453,8 @@
       <c r="J41">
         <v>0.54299999999999993</v>
       </c>
-      <c r="K41">
-        <v>12.464475691172296</v>
-      </c>
-      <c r="L41">
-        <v>0.54299999999999993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>43656</v>
       </c>
@@ -32731,14 +32485,8 @@
       <c r="J42">
         <v>0.81</v>
       </c>
-      <c r="K42">
-        <v>14.739975866968816</v>
-      </c>
-      <c r="L42">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>43656</v>
       </c>
@@ -32769,14 +32517,8 @@
       <c r="J43">
         <v>0.67299999999999993</v>
       </c>
-      <c r="K43">
-        <v>13.057259608918294</v>
-      </c>
-      <c r="L43">
-        <v>0.67299999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>43656</v>
       </c>
@@ -32807,14 +32549,8 @@
       <c r="J44">
         <v>0.49299999999999999</v>
       </c>
-      <c r="K44">
-        <v>10.326442794559014</v>
-      </c>
-      <c r="L44">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>43655</v>
       </c>
@@ -32845,14 +32581,8 @@
       <c r="J45">
         <v>0.91299999999999992</v>
       </c>
-      <c r="K45">
-        <v>14.223861048809116</v>
-      </c>
-      <c r="L45">
-        <v>0.91299999999999992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>43655</v>
       </c>
@@ -32883,14 +32613,8 @@
       <c r="J46">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K46">
-        <v>11.164766684814794</v>
-      </c>
-      <c r="L46">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>43655</v>
       </c>
@@ -32921,14 +32645,8 @@
       <c r="J47">
         <v>0.45299999999999996</v>
       </c>
-      <c r="K47">
-        <v>11.287823711706068</v>
-      </c>
-      <c r="L47">
-        <v>0.45299999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>43654</v>
       </c>
@@ -32959,14 +32677,8 @@
       <c r="J48">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K48">
-        <v>10.949363689625523</v>
-      </c>
-      <c r="L48">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>43643</v>
       </c>
@@ -32997,14 +32709,8 @@
       <c r="J49">
         <v>0.60299999999999998</v>
       </c>
-      <c r="K49">
-        <v>11.138117406999051</v>
-      </c>
-      <c r="L49">
-        <v>0.60299999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>43643</v>
       </c>
@@ -33035,14 +32741,8 @@
       <c r="J50">
         <v>0.41700000000000004</v>
       </c>
-      <c r="K50">
-        <v>18.283818882282798</v>
-      </c>
-      <c r="L50">
-        <v>0.41700000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>43643</v>
       </c>
@@ -33073,14 +32773,8 @@
       <c r="J51">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K51">
-        <v>10.752446851496057</v>
-      </c>
-      <c r="L51">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>43642</v>
       </c>
@@ -33111,14 +32805,8 @@
       <c r="J52">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K52">
-        <v>12.478410652288076</v>
-      </c>
-      <c r="L52">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>43642</v>
       </c>
@@ -33149,14 +32837,8 @@
       <c r="J53">
         <v>0.11699999999999999</v>
       </c>
-      <c r="K53">
-        <v>10.744693374908897</v>
-      </c>
-      <c r="L53">
-        <v>0.11699999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>43642</v>
       </c>
@@ -33187,14 +32869,8 @@
       <c r="J54">
         <v>0.33</v>
       </c>
-      <c r="K54">
-        <v>13.19343922953021</v>
-      </c>
-      <c r="L54">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>43641</v>
       </c>
@@ -33225,14 +32901,8 @@
       <c r="J55">
         <v>0.54</v>
       </c>
-      <c r="K55">
-        <v>11.67514210527956</v>
-      </c>
-      <c r="L55">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>43641</v>
       </c>
@@ -33263,14 +32933,8 @@
       <c r="J56">
         <v>0.41</v>
       </c>
-      <c r="K56">
-        <v>9.2117910232752411</v>
-      </c>
-      <c r="L56">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>43641</v>
       </c>
@@ -33301,14 +32965,8 @@
       <c r="J57">
         <v>0.44</v>
       </c>
-      <c r="K57">
-        <v>11.1734636258848</v>
-      </c>
-      <c r="L57">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>43641</v>
       </c>
@@ -33339,14 +32997,8 @@
       <c r="J58">
         <v>0.38</v>
       </c>
-      <c r="K58">
-        <v>10.187894347780277</v>
-      </c>
-      <c r="L58">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>43640</v>
       </c>
@@ -33377,14 +33029,8 @@
       <c r="J59">
         <v>0.59400000000000008</v>
       </c>
-      <c r="K59">
-        <v>11.289920405801151</v>
-      </c>
-      <c r="L59">
-        <v>0.59400000000000008</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>43634</v>
       </c>
@@ -33415,14 +33061,8 @@
       <c r="J60">
         <v>0.79599999999999993</v>
       </c>
-      <c r="K60">
-        <v>15.616948638472993</v>
-      </c>
-      <c r="L60">
-        <v>0.79599999999999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>43633</v>
       </c>
@@ -33453,14 +33093,8 @@
       <c r="J61">
         <v>0.55400000000000005</v>
       </c>
-      <c r="K61">
-        <v>15.574822800483064</v>
-      </c>
-      <c r="L61">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>43633</v>
       </c>
@@ -33491,14 +33125,8 @@
       <c r="J62">
         <v>0.58700000000000008</v>
       </c>
-      <c r="K62">
-        <v>15.247721665439553</v>
-      </c>
-      <c r="L62">
-        <v>0.58700000000000008</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>43633</v>
       </c>
@@ -33529,14 +33157,8 @@
       <c r="J63">
         <v>0.69900000000000007</v>
       </c>
-      <c r="K63">
-        <v>5.3335717587113356</v>
-      </c>
-      <c r="L63">
-        <v>0.69900000000000007</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>43631</v>
       </c>
@@ -33567,14 +33189,8 @@
       <c r="J64">
         <v>0.82</v>
       </c>
-      <c r="K64">
-        <v>14.578932481266918</v>
-      </c>
-      <c r="L64">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>43631</v>
       </c>
@@ -33605,14 +33221,8 @@
       <c r="J65">
         <v>0.87</v>
       </c>
-      <c r="K65">
-        <v>15.471719204144582</v>
-      </c>
-      <c r="L65">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>43631</v>
       </c>
@@ -33643,14 +33253,8 @@
       <c r="J66">
         <v>0.4</v>
       </c>
-      <c r="K66">
-        <v>16.863522385914724</v>
-      </c>
-      <c r="L66">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>43630</v>
       </c>
@@ -33681,14 +33285,8 @@
       <c r="J67">
         <v>0.48700000000000004</v>
       </c>
-      <c r="K67">
-        <v>14.967093670367218</v>
-      </c>
-      <c r="L67">
-        <v>0.48700000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>43629</v>
       </c>
@@ -33719,14 +33317,8 @@
       <c r="J68">
         <v>0.80599999999999994</v>
       </c>
-      <c r="K68">
-        <v>15.795304421958814</v>
-      </c>
-      <c r="L68">
-        <v>0.80599999999999994</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>43629</v>
       </c>
@@ -33757,14 +33349,8 @@
       <c r="J69">
         <v>0.73299999999999998</v>
       </c>
-      <c r="K69">
-        <v>15.784286581957828</v>
-      </c>
-      <c r="L69">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>43628</v>
       </c>
@@ -33795,14 +33381,8 @@
       <c r="J70">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K70">
-        <v>9.2356088302630095</v>
-      </c>
-      <c r="L70">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>43628</v>
       </c>
@@ -33833,14 +33413,8 @@
       <c r="J71">
         <v>0.50700000000000001</v>
       </c>
-      <c r="K71">
-        <v>15.317379122584979</v>
-      </c>
-      <c r="L71">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>43628</v>
       </c>
@@ -33871,14 +33445,8 @@
       <c r="J72">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K72">
-        <v>15.616815033861398</v>
-      </c>
-      <c r="L72">
-        <v>0.77700000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>43612</v>
       </c>
@@ -33909,14 +33477,8 @@
       <c r="J73">
         <v>0.34600000000000003</v>
       </c>
-      <c r="K73">
-        <v>10.024011529382408</v>
-      </c>
-      <c r="L73">
-        <v>0.34600000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>43612</v>
       </c>
@@ -33947,14 +33509,8 @@
       <c r="J74">
         <v>0.28600000000000003</v>
       </c>
-      <c r="K74">
-        <v>8.8635554493256024</v>
-      </c>
-      <c r="L74">
-        <v>0.28600000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>43612</v>
       </c>
@@ -33985,14 +33541,8 @@
       <c r="J75">
         <v>0.41400000000000003</v>
       </c>
-      <c r="K75">
-        <v>11.719133543947565</v>
-      </c>
-      <c r="L75">
-        <v>0.41400000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>43611</v>
       </c>
@@ -34023,14 +33573,8 @@
       <c r="J76">
         <v>0.153</v>
       </c>
-      <c r="K76">
-        <v>5.3033441169285327</v>
-      </c>
-      <c r="L76">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>43611</v>
       </c>
@@ -34061,14 +33605,8 @@
       <c r="J77">
         <v>0.22699999999999998</v>
       </c>
-      <c r="K77">
-        <v>7.6012330760214271</v>
-      </c>
-      <c r="L77">
-        <v>0.22699999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>43611</v>
       </c>
@@ -34099,14 +33637,8 @@
       <c r="J78">
         <v>0.20600000000000002</v>
       </c>
-      <c r="K78">
-        <v>6.4900887216134961</v>
-      </c>
-      <c r="L78">
-        <v>0.20600000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>43611</v>
       </c>
@@ -34137,14 +33669,8 @@
       <c r="J79">
         <v>0.16300000000000001</v>
       </c>
-      <c r="K79">
-        <v>9.1975870102770276</v>
-      </c>
-      <c r="L79">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>43611</v>
       </c>
@@ -34175,14 +33701,8 @@
       <c r="J80">
         <v>0.15</v>
       </c>
-      <c r="K80">
-        <v>9.9277656904427491</v>
-      </c>
-      <c r="L80">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>43610</v>
       </c>
@@ -34213,14 +33733,8 @@
       <c r="J81">
         <v>0.45700000000000002</v>
       </c>
-      <c r="K81">
-        <v>10.604810528488949</v>
-      </c>
-      <c r="L81">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>43610</v>
       </c>
@@ -34251,14 +33765,8 @@
       <c r="J82">
         <v>0.21600000000000003</v>
       </c>
-      <c r="K82">
-        <v>6.8460030105741936</v>
-      </c>
-      <c r="L82">
-        <v>0.21600000000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>43610</v>
       </c>
@@ -34289,14 +33797,8 @@
       <c r="J83">
         <v>0.307</v>
       </c>
-      <c r="K83">
-        <v>10.496482779567183</v>
-      </c>
-      <c r="L83">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>43610</v>
       </c>
@@ -34327,14 +33829,8 @@
       <c r="J84">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K84">
-        <v>7.3920674468515628</v>
-      </c>
-      <c r="L84">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>43610</v>
       </c>
@@ -34365,14 +33861,8 @@
       <c r="J85">
         <v>0.32</v>
       </c>
-      <c r="K85">
-        <v>6.4587483737097342</v>
-      </c>
-      <c r="L85">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>43609</v>
       </c>
@@ -34403,14 +33893,8 @@
       <c r="J86">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K86">
-        <v>10.980822315165621</v>
-      </c>
-      <c r="L86">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>43609</v>
       </c>
@@ -34441,14 +33925,8 @@
       <c r="J87">
         <v>0.06</v>
       </c>
-      <c r="K87">
-        <v>8.4653909908430816</v>
-      </c>
-      <c r="L87">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>43602</v>
       </c>
@@ -34479,14 +33957,8 @@
       <c r="J88">
         <v>0.28300000000000003</v>
       </c>
-      <c r="K88">
-        <v>16.077506500954378</v>
-      </c>
-      <c r="L88">
-        <v>0.28300000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>43602</v>
       </c>
@@ -34517,14 +33989,8 @@
       <c r="J89">
         <v>0.11600000000000002</v>
       </c>
-      <c r="K89">
-        <v>14.908322966514</v>
-      </c>
-      <c r="L89">
-        <v>0.11600000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>43602</v>
       </c>
@@ -34555,14 +34021,8 @@
       <c r="J90">
         <v>0.3</v>
       </c>
-      <c r="K90">
-        <v>13.069750982607333</v>
-      </c>
-      <c r="L90">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>43601</v>
       </c>
@@ -34593,14 +34053,8 @@
       <c r="J91">
         <v>0.29399999999999998</v>
       </c>
-      <c r="K91">
-        <v>15.568782097623609</v>
-      </c>
-      <c r="L91">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>43601</v>
       </c>
@@ -34631,14 +34085,8 @@
       <c r="J92">
         <v>0.127</v>
       </c>
-      <c r="K92">
-        <v>13.769227747331302</v>
-      </c>
-      <c r="L92">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>43601</v>
       </c>
@@ -34669,14 +34117,8 @@
       <c r="J93">
         <v>0.113</v>
       </c>
-      <c r="K93">
-        <v>14.489901264097863</v>
-      </c>
-      <c r="L93">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>43601</v>
       </c>
@@ -34707,14 +34149,8 @@
       <c r="J94">
         <v>0.12</v>
       </c>
-      <c r="K94">
-        <v>23.529364053899084</v>
-      </c>
-      <c r="L94">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>43601</v>
       </c>
@@ -34745,14 +34181,8 @@
       <c r="J95">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K95">
-        <v>14.767763086615313</v>
-      </c>
-      <c r="L95">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>43600</v>
       </c>
@@ -34783,14 +34213,8 @@
       <c r="J96">
         <v>0.16</v>
       </c>
-      <c r="K96">
-        <v>15.265833201528935</v>
-      </c>
-      <c r="L96">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>43600</v>
       </c>
@@ -34821,14 +34245,8 @@
       <c r="J97">
         <v>0.18</v>
       </c>
-      <c r="K97">
-        <v>20.574336474772128</v>
-      </c>
-      <c r="L97">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>43600</v>
       </c>
@@ -34859,14 +34277,8 @@
       <c r="J98">
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="K98">
-        <v>23.404239109730401</v>
-      </c>
-      <c r="L98">
-        <v>9.3000000000000013E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>43600</v>
       </c>
@@ -34897,14 +34309,8 @@
       <c r="J99">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K99">
-        <v>22.41884698238696</v>
-      </c>
-      <c r="L99">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>43599</v>
       </c>
@@ -34935,14 +34341,8 @@
       <c r="J100">
         <v>0.254</v>
       </c>
-      <c r="K100">
-        <v>12.342166256341461</v>
-      </c>
-      <c r="L100">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>43599</v>
       </c>
@@ -34973,14 +34373,8 @@
       <c r="J101">
         <v>0.43</v>
       </c>
-      <c r="K101">
-        <v>16.070838694915768</v>
-      </c>
-      <c r="L101">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>43599</v>
       </c>
@@ -35011,14 +34405,8 @@
       <c r="J102">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K102">
-        <v>17.247255809321508</v>
-      </c>
-      <c r="L102">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>43599</v>
       </c>
@@ -35049,14 +34437,8 @@
       <c r="J103">
         <v>0.06</v>
       </c>
-      <c r="K103">
-        <v>14.088908728168221</v>
-      </c>
-      <c r="L103">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>43599</v>
       </c>
@@ -35087,14 +34469,8 @@
       <c r="J104">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K104">
-        <v>27.675593308989399</v>
-      </c>
-      <c r="L104">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>43599</v>
       </c>
@@ -35125,14 +34501,8 @@
       <c r="J105">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="K105">
-        <v>23.246247002088374</v>
-      </c>
-      <c r="L105">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>43599</v>
       </c>
@@ -35163,14 +34533,8 @@
       <c r="J106">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="K106">
-        <v>23.005483598429024</v>
-      </c>
-      <c r="L106">
-        <v>5.5999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>43599</v>
       </c>
@@ -35201,14 +34565,8 @@
       <c r="J107">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K107">
-        <v>19.137902755278553</v>
-      </c>
-      <c r="L107">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>43599</v>
       </c>
@@ -35239,14 +34597,8 @@
       <c r="J108">
         <v>0.13</v>
       </c>
-      <c r="K108">
-        <v>21.178074135037065</v>
-      </c>
-      <c r="L108">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>43599</v>
       </c>
@@ -35277,14 +34629,8 @@
       <c r="J109">
         <v>0.03</v>
       </c>
-      <c r="K109">
-        <v>20.063023360275686</v>
-      </c>
-      <c r="L109">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>43598</v>
       </c>
@@ -35315,14 +34661,8 @@
       <c r="J110">
         <v>0.60699999999999998</v>
       </c>
-      <c r="K110">
-        <v>15.035584062515024</v>
-      </c>
-      <c r="L110">
-        <v>0.60699999999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>43598</v>
       </c>
@@ -35353,14 +34693,8 @@
       <c r="J111">
         <v>0.154</v>
       </c>
-      <c r="K111">
-        <v>11.965909509984131</v>
-      </c>
-      <c r="L111">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>43598</v>
       </c>
@@ -35391,14 +34725,8 @@
       <c r="J112">
         <v>0.47299999999999998</v>
       </c>
-      <c r="K112">
-        <v>13.927878333887334</v>
-      </c>
-      <c r="L112">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>43598</v>
       </c>
@@ -35429,14 +34757,8 @@
       <c r="J113">
         <v>0.193</v>
       </c>
-      <c r="K113">
-        <v>20.220510016967872</v>
-      </c>
-      <c r="L113">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>43598</v>
       </c>
@@ -35467,14 +34789,8 @@
       <c r="J114">
         <v>0.48299999999999998</v>
       </c>
-      <c r="K114">
-        <v>18.70567927857752</v>
-      </c>
-      <c r="L114">
-        <v>0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>43597</v>
       </c>
@@ -35505,14 +34821,8 @@
       <c r="J115">
         <v>0.36</v>
       </c>
-      <c r="K115">
-        <v>16.78561219259198</v>
-      </c>
-      <c r="L115">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>43597</v>
       </c>
@@ -35543,14 +34853,8 @@
       <c r="J116">
         <v>0.3</v>
       </c>
-      <c r="K116">
-        <v>16.835613112482385</v>
-      </c>
-      <c r="L116">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>43597</v>
       </c>
@@ -35581,14 +34885,8 @@
       <c r="J117">
         <v>0.32299999999999995</v>
       </c>
-      <c r="K117">
-        <v>13.15350295074996</v>
-      </c>
-      <c r="L117">
-        <v>0.32299999999999995</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>43596</v>
       </c>
@@ -35619,14 +34917,8 @@
       <c r="J118">
         <v>0.52400000000000002</v>
       </c>
-      <c r="K118">
-        <v>9.6536267044525772</v>
-      </c>
-      <c r="L118">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>43596</v>
       </c>
@@ -35657,14 +34949,8 @@
       <c r="J119">
         <v>0.19699999999999998</v>
       </c>
-      <c r="K119">
-        <v>11.704409906810906</v>
-      </c>
-      <c r="L119">
-        <v>0.19699999999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>43596</v>
       </c>
@@ -35695,14 +34981,8 @@
       <c r="J120">
         <v>0.34</v>
       </c>
-      <c r="K120">
-        <v>11.601513596571706</v>
-      </c>
-      <c r="L120">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>43596</v>
       </c>
@@ -35733,14 +35013,8 @@
       <c r="J121">
         <v>0.25</v>
       </c>
-      <c r="K121">
-        <v>9.1217361435006854</v>
-      </c>
-      <c r="L121">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>43595</v>
       </c>
@@ -35771,14 +35045,8 @@
       <c r="J122">
         <v>0.43</v>
       </c>
-      <c r="K122">
-        <v>11.115605978673498</v>
-      </c>
-      <c r="L122">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>43595</v>
       </c>
@@ -35809,14 +35077,8 @@
       <c r="J123">
         <v>0.51300000000000001</v>
       </c>
-      <c r="K123">
-        <v>15.644977109485755</v>
-      </c>
-      <c r="L123">
-        <v>0.51300000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>43594</v>
       </c>
@@ -35847,14 +35109,8 @@
       <c r="J124">
         <v>0.34700000000000003</v>
       </c>
-      <c r="K124">
-        <v>12.51934763844903</v>
-      </c>
-      <c r="L124">
-        <v>0.34700000000000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>43594</v>
       </c>
@@ -35885,14 +35141,8 @@
       <c r="J125">
         <v>0.55700000000000005</v>
       </c>
-      <c r="K125">
-        <v>14.645958094494832</v>
-      </c>
-      <c r="L125">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>43594</v>
       </c>
@@ -35923,14 +35173,8 @@
       <c r="J126">
         <v>0.20300000000000001</v>
       </c>
-      <c r="K126">
-        <v>17.145239403386899</v>
-      </c>
-      <c r="L126">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>43594</v>
       </c>
@@ -35961,14 +35205,8 @@
       <c r="J127">
         <v>0.11699999999999999</v>
       </c>
-      <c r="K127">
-        <v>13.472752124379452</v>
-      </c>
-      <c r="L127">
-        <v>0.11699999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>43593</v>
       </c>
@@ -35999,14 +35237,8 @@
       <c r="J128">
         <v>0.34700000000000003</v>
       </c>
-      <c r="K128">
-        <v>12.053987720052406</v>
-      </c>
-      <c r="L128">
-        <v>0.34700000000000003</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>43587</v>
       </c>
@@ -36037,14 +35269,8 @@
       <c r="J129">
         <v>0.21</v>
       </c>
-      <c r="K129">
-        <v>10.007098547327514</v>
-      </c>
-      <c r="L129">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>43587</v>
       </c>
@@ -36075,14 +35301,8 @@
       <c r="J130">
         <v>0.40400000000000008</v>
       </c>
-      <c r="K130">
-        <v>13.026419987679889</v>
-      </c>
-      <c r="L130">
-        <v>0.40400000000000008</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>43587</v>
       </c>
@@ -36113,14 +35333,8 @@
       <c r="J131">
         <v>0.34700000000000003</v>
       </c>
-      <c r="K131">
-        <v>13.606502643224797</v>
-      </c>
-      <c r="L131">
-        <v>0.34700000000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>43587</v>
       </c>
@@ -36151,14 +35365,8 @@
       <c r="J132">
         <v>0.55299999999999994</v>
       </c>
-      <c r="K132">
-        <v>14.083011107837599</v>
-      </c>
-      <c r="L132">
-        <v>0.55299999999999994</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>43587</v>
       </c>
@@ -36189,14 +35397,8 @@
       <c r="J133">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K133">
-        <v>11.921108496205287</v>
-      </c>
-      <c r="L133">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>43586</v>
       </c>
@@ -36227,14 +35429,8 @@
       <c r="J134">
         <v>0.316</v>
       </c>
-      <c r="K134">
-        <v>13.52896063551669</v>
-      </c>
-      <c r="L134">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>43586</v>
       </c>
@@ -36265,14 +35461,8 @@
       <c r="J135">
         <v>0.53299999999999992</v>
       </c>
-      <c r="K135">
-        <v>13.738759082941771</v>
-      </c>
-      <c r="L135">
-        <v>0.53299999999999992</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>43586</v>
       </c>
@@ -36303,14 +35493,8 @@
       <c r="J136">
         <v>0.25700000000000001</v>
       </c>
-      <c r="K136">
-        <v>11.620636949202783</v>
-      </c>
-      <c r="L136">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>43586</v>
       </c>
@@ -36341,14 +35525,8 @@
       <c r="J137">
         <v>0.16300000000000001</v>
       </c>
-      <c r="K137">
-        <v>7.6978356115871875</v>
-      </c>
-      <c r="L137">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>43585</v>
       </c>
@@ -36379,14 +35557,8 @@
       <c r="J138">
         <v>0.313</v>
       </c>
-      <c r="K138">
-        <v>8.7680360269455218</v>
-      </c>
-      <c r="L138">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>43585</v>
       </c>
@@ -36417,14 +35589,8 @@
       <c r="J139">
         <v>0.63</v>
       </c>
-      <c r="K139">
-        <v>11.124123139770617</v>
-      </c>
-      <c r="L139">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>43585</v>
       </c>
@@ -36455,14 +35621,8 @@
       <c r="J140">
         <v>0.53599999999999992</v>
       </c>
-      <c r="K140">
-        <v>12.681478200324777</v>
-      </c>
-      <c r="L140">
-        <v>0.53599999999999992</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>43585</v>
       </c>
@@ -36493,14 +35653,8 @@
       <c r="J141">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K141">
-        <v>11.372257539521881</v>
-      </c>
-      <c r="L141">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>43585</v>
       </c>
@@ -36531,14 +35685,8 @@
       <c r="J142">
         <v>0.27</v>
       </c>
-      <c r="K142">
-        <v>7.933939987949401</v>
-      </c>
-      <c r="L142">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>43584</v>
       </c>
@@ -36569,14 +35717,8 @@
       <c r="J143">
         <v>0.26700000000000002</v>
       </c>
-      <c r="K143">
-        <v>14.157063838169892</v>
-      </c>
-      <c r="L143">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>43567</v>
       </c>
@@ -36607,14 +35749,8 @@
       <c r="J144">
         <v>0.71599999999999997</v>
       </c>
-      <c r="K144">
-        <v>13.834212014761116</v>
-      </c>
-      <c r="L144">
-        <v>0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>43566</v>
       </c>
@@ -36645,14 +35781,8 @@
       <c r="J145">
         <v>0.48799999999999999</v>
       </c>
-      <c r="K145">
-        <v>12.907155273980052</v>
-      </c>
-      <c r="L145">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>43566</v>
       </c>
@@ -36683,14 +35813,8 @@
       <c r="J146">
         <v>0.23</v>
       </c>
-      <c r="K146">
-        <v>11.202279770129842</v>
-      </c>
-      <c r="L146">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>43566</v>
       </c>
@@ -36721,14 +35845,8 @@
       <c r="J147">
         <v>0.627</v>
       </c>
-      <c r="K147">
-        <v>15.230516201473433</v>
-      </c>
-      <c r="L147">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>43565</v>
       </c>
@@ -36759,14 +35877,8 @@
       <c r="J148">
         <v>0.80700000000000005</v>
       </c>
-      <c r="K148">
-        <v>14.586280744041407</v>
-      </c>
-      <c r="L148">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>43565</v>
       </c>
@@ -36797,14 +35909,8 @@
       <c r="J149">
         <v>0.75</v>
       </c>
-      <c r="K149">
-        <v>16.184871821891999</v>
-      </c>
-      <c r="L149">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>43564</v>
       </c>
@@ -36835,14 +35941,8 @@
       <c r="J150">
         <v>0.63</v>
       </c>
-      <c r="K150">
-        <v>13.912360484641573</v>
-      </c>
-      <c r="L150">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>43564</v>
       </c>
@@ -36873,14 +35973,8 @@
       <c r="J151">
         <v>0.28699999999999998</v>
       </c>
-      <c r="K151">
-        <v>7.7260508365710496</v>
-      </c>
-      <c r="L151">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>43559</v>
       </c>
@@ -36911,14 +36005,8 @@
       <c r="J152">
         <v>0.46599999999999997</v>
       </c>
-      <c r="K152">
-        <v>9.5955888830958838</v>
-      </c>
-      <c r="L152">
-        <v>0.46599999999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>43559</v>
       </c>
@@ -36949,14 +36037,8 @@
       <c r="J153">
         <v>0.35700000000000004</v>
       </c>
-      <c r="K153">
-        <v>11.058457510976801</v>
-      </c>
-      <c r="L153">
-        <v>0.35700000000000004</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>43559</v>
       </c>
@@ -36987,14 +36069,8 @@
       <c r="J154">
         <v>0.67700000000000005</v>
       </c>
-      <c r="K154">
-        <v>12.796768213995817</v>
-      </c>
-      <c r="L154">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>43558</v>
       </c>
@@ -37025,14 +36101,8 @@
       <c r="J155">
         <v>0.30399999999999999</v>
       </c>
-      <c r="K155">
-        <v>7.4659953750068233</v>
-      </c>
-      <c r="L155">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>43558</v>
       </c>
@@ -37063,14 +36133,8 @@
       <c r="J156">
         <v>0.24</v>
       </c>
-      <c r="K156">
-        <v>5.645560183854518</v>
-      </c>
-      <c r="L156">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>43558</v>
       </c>
@@ -37101,14 +36165,8 @@
       <c r="J157">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K157">
-        <v>6.1381050933871393</v>
-      </c>
-      <c r="L157">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>43557</v>
       </c>
@@ -37139,14 +36197,8 @@
       <c r="J158">
         <v>0.12300000000000001</v>
       </c>
-      <c r="K158">
-        <v>4.792535543727718</v>
-      </c>
-      <c r="L158">
-        <v>0.12300000000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>43557</v>
       </c>
@@ -37177,14 +36229,8 @@
       <c r="J159">
         <v>0.5</v>
       </c>
-      <c r="K159">
-        <v>6.6775430331116272</v>
-      </c>
-      <c r="L159">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>43556</v>
       </c>
@@ -37215,14 +36261,8 @@
       <c r="J160">
         <v>0.59</v>
       </c>
-      <c r="K160">
-        <v>8.9915501853111941</v>
-      </c>
-      <c r="L160">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>43556</v>
       </c>
@@ -37251,12 +36291,6 @@
         <v>39.700000000000003</v>
       </c>
       <c r="J161">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="K161">
-        <v>9.7506612762108951</v>
-      </c>
-      <c r="L161">
         <v>0.39700000000000002</v>
       </c>
     </row>
